--- a/public/template-excel/lapkeuanganhaji/lap_operasional_bulanan.xlsx
+++ b/public/template-excel/lapkeuanganhaji/lap_operasional_bulanan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\DESAIN WEB\BPKH\27-1-20\sampel data\lapkeuhaji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\lapkeuanganhaji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665A2C01-285E-4C2B-9856-281172486E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1DC1B-2C11-4CE8-BAC6-0A35566931D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{88D644C7-6DD9-465B-B9A7-C0807472038D}"/>
   </bookViews>
@@ -31,64 +31,286 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Pendapatan setoran jemaah berangkat</t>
-  </si>
-  <si>
-    <t>Beban transfer BPIH ke Kementerian Agama</t>
-  </si>
-  <si>
-    <t>Surplus/(Defisit) Biaya Penyelenggaraan Ibadah Haji (BPIH)</t>
-  </si>
-  <si>
-    <t>Pendapatan nilai manfaat</t>
-  </si>
-  <si>
-    <t>- Nilai Manfaat Penempatan - bersih</t>
-  </si>
-  <si>
-    <t>- Nilai Manfaat Investasi - bersih</t>
-  </si>
-  <si>
-    <t>Beban operasional BPKH</t>
-  </si>
-  <si>
-    <t>Surplus/(Defisit) Operasional BPKH</t>
-  </si>
-  <si>
-    <t>Penyaluran untuk rekening virtual</t>
-  </si>
-  <si>
-    <t>Penyaluran program kemaslahatan</t>
-  </si>
-  <si>
-    <t>Surplus/(Defisit) BPKH</t>
-  </si>
-  <si>
-    <t>Penggunaan nilai manfaat akumulasi tahun sebelumnya</t>
-  </si>
-  <si>
-    <t>Total Surplus/(Defisit)</t>
-  </si>
-  <si>
-    <t>Penghasilan/(Beban) komprehensif lain</t>
-  </si>
-  <si>
-    <t>Total Surplus Komprehensif</t>
-  </si>
-  <si>
-    <t>Uraian</t>
-  </si>
-  <si>
-    <t>Februari</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uraian</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Catatan</t>
+    </r>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pendapatan setoran jemaah berangkat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Beban transfer BPIH  ke Kementerian Agama</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Surplus/(Defisit) BPIH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pendapatan nilai manfaat Dana PIH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Penyaluran untuk rekening </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>virtual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.5.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Beban operasional BPKH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.4.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Surplus/(Defisit) Dana PIH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pendapatan nilai manfaat Dana Abadi Umat (DAU)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Penyaluran program kemaslahatan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.6.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Surplus/(Defisit) DAU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Akumulasi Surplus/(Defisit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Penggunaan nilai manfat akumulasi tahun sebelumnya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total Surplus/(Defisit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Penghasilan/(Beban) komprehensif lain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E.8.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Total Surplus Komprehensif</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00_);\(#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,14 +320,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,24 +358,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB4C5E7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,80 +377,83 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,148 +769,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47541A75-6981-4BB0-AD93-885F0398A1E1}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7637011282453</v>
+      </c>
+      <c r="D2" s="8">
+        <v>7226282920797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-14628017168797</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-13771380238444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12">
+        <v>-6991005886344</v>
+      </c>
+      <c r="D4" s="12">
+        <v>-6545097317647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7082284598189</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5514723399878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-1083000000000</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-777394808723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-153285900932</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-67848654692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14">
+        <v>5845998697257</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4669479936463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8">
+        <v>223753032351</v>
+      </c>
+      <c r="D9" s="8">
+        <v>189101187730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <v>200000</v>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-156539827041</v>
+      </c>
+      <c r="D10" s="9">
+        <v>-590300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14">
+        <v>67213205310</v>
+      </c>
+      <c r="D11" s="14">
+        <v>188510887730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12">
+        <v>-1077793983777</v>
+      </c>
+      <c r="D12" s="12">
+        <v>-1687106493454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1233888233146</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2000000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14">
+        <v>156094249369</v>
+      </c>
+      <c r="D14" s="14">
+        <v>312893506546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8">
+        <v>300131716812</v>
+      </c>
+      <c r="D15" s="8">
+        <v>46810706729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14">
+        <v>456225966181</v>
+      </c>
+      <c r="D16" s="14">
+        <v>359704213275</v>
       </c>
     </row>
   </sheetData>
